--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -66,9 +66,6 @@
     <t xml:space="preserve">Sanwa JLF-TP-8YT-SK OEM Green Ball Handle Arcade Joystick 4 &amp; 8 Way Adjustable (Mad Catz SF4 Tournament Joystick Compatible) </t>
   </si>
   <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
     <t>JLF-TP-8YT-SK</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Manufacturer Link</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -523,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -558,16 +558,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -584,22 +584,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>2.95</v>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -18,48 +18,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>quatity used</t>
-  </si>
-  <si>
-    <t>unit price</t>
-  </si>
-  <si>
-    <t>alt. unit price</t>
-  </si>
-  <si>
-    <t>alt supplier</t>
-  </si>
-  <si>
     <t>PUSH BUTTON SWITCH PS-300C1 RED MOMENTARY</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>http://leeselectronic.com/en/product/3290.html</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>part detail</t>
-  </si>
-  <si>
     <t>push button</t>
   </si>
   <si>
     <t>joystick</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
     <t>Sanwa</t>
   </si>
   <si>
@@ -69,9 +42,6 @@
     <t>JLF-TP-8YT-SK</t>
   </si>
   <si>
-    <t>Product ID</t>
-  </si>
-  <si>
     <t>patterson</t>
   </si>
   <si>
@@ -102,10 +72,40 @@
     <t>multicomp?</t>
   </si>
   <si>
-    <t>Manufacturer Link</t>
-  </si>
-  <si>
     <t>amazon.com</t>
+  </si>
+  <si>
+    <t>PART</t>
+  </si>
+  <si>
+    <t>PART DETAIL</t>
+  </si>
+  <si>
+    <t>QUATITY USED</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>PRODUCT ID</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>UNIT PRICE</t>
+  </si>
+  <si>
+    <t>ALT SUPPLIER</t>
+  </si>
+  <si>
+    <t>ALT. UNIT PRICE</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MANUFACTURER LINK</t>
   </si>
 </sst>
 </file>
@@ -472,149 +472,149 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>6.6</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>2.95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -96,9 +96,6 @@
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>ALT SUPPLIER</t>
-  </si>
-  <si>
     <t>ALT. UNIT PRICE</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>MANUFACTURER LINK</t>
+  </si>
+  <si>
+    <t>ALT. SUPPLIER</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,16 +500,16 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Electrical" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -636,16 +635,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10515" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="10515" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>PUSH BUTTON SWITCH PS-300C1 RED MOMENTARY</t>
   </si>
@@ -470,13 +470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -627,12 +627,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>PUSH BUTTON SWITCH PS-300C1 RED MOMENTARY</t>
   </si>
@@ -627,47 +627,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>PUSH BUTTON SWITCH PS-300C1 RED MOMENTARY</t>
   </si>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,14 +627,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10515" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>PUSH BUTTON SWITCH PS-300C1 RED MOMENTARY</t>
   </si>
@@ -105,13 +105,59 @@
   </si>
   <si>
     <t>ALT. SUPPLIER</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero</t>
+  </si>
+  <si>
+    <t>CanaKit.com</t>
+  </si>
+  <si>
+    <t>powe bank</t>
+  </si>
+  <si>
+    <t>NCIX.com</t>
+  </si>
+  <si>
+    <t>PIVOS Moju 2600mAh Mobile Charer</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Foundation</t>
+  </si>
+  <si>
+    <t>Pivos</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Wiimote</t>
+  </si>
+  <si>
+    <t>Kingston 32Gb sd card</t>
+  </si>
+  <si>
+    <t>SD card with Debian Jesssie lite loaded</t>
+  </si>
+  <si>
+    <t>4mm Screws</t>
+  </si>
+  <si>
+    <t>4mm nuts</t>
+  </si>
+  <si>
+    <t>ribbon cable with 40 pin IDC connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -160,11 +206,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -468,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +660,70 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -627,15 +738,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -645,15 +756,176 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>99830</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\TeamTimothy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="10515" windowHeight="4620" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="10518" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -15,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
-  <si>
-    <t>PUSH BUTTON SWITCH PS-300C1 RED MOMENTARY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>http://leeselectronic.com/en/product/3290.html</t>
   </si>
@@ -26,36 +28,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>push button</t>
-  </si>
-  <si>
-    <t>joystick</t>
-  </si>
-  <si>
-    <t>Sanwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanwa JLF-TP-8YT-SK OEM Green Ball Handle Arcade Joystick 4 &amp; 8 Way Adjustable (Mad Catz SF4 Tournament Joystick Compatible) </t>
-  </si>
-  <si>
     <t>JLF-TP-8YT-SK</t>
   </si>
   <si>
-    <t>patterson</t>
-  </si>
-  <si>
     <t>22.92 USD</t>
   </si>
   <si>
-    <t>joystick push button</t>
-  </si>
-  <si>
-    <t>MICRO SWITCH DM1-03 LONG LEVER</t>
-  </si>
-  <si>
-    <t>Lee's</t>
-  </si>
-  <si>
     <t>http://leeselectronic.com/en/product/347.html</t>
   </si>
   <si>
@@ -68,39 +46,15 @@
     <t>DM1-03</t>
   </si>
   <si>
-    <t>multicomp?</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
-  </si>
-  <si>
     <t>PART</t>
   </si>
   <si>
-    <t>PART DETAIL</t>
-  </si>
-  <si>
-    <t>QUATITY USED</t>
-  </si>
-  <si>
     <t>SUPPLIER</t>
   </si>
   <si>
-    <t>PRODUCT ID</t>
-  </si>
-  <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>ALT. UNIT PRICE</t>
-  </si>
-  <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
     <t>MANUFACTURER LINK</t>
   </si>
   <si>
@@ -110,52 +64,118 @@
     <t>Raspberry Pi Zero</t>
   </si>
   <si>
-    <t>CanaKit.com</t>
-  </si>
-  <si>
-    <t>powe bank</t>
-  </si>
-  <si>
-    <t>NCIX.com</t>
-  </si>
-  <si>
-    <t>PIVOS Moju 2600mAh Mobile Charer</t>
-  </si>
-  <si>
     <t>Adafruit</t>
   </si>
   <si>
-    <t>Raspberry Pi Foundation</t>
-  </si>
-  <si>
-    <t>Pivos</t>
-  </si>
-  <si>
-    <t>Nintendo</t>
-  </si>
-  <si>
-    <t>Wiimote</t>
-  </si>
-  <si>
-    <t>Kingston 32Gb sd card</t>
-  </si>
-  <si>
-    <t>SD card with Debian Jesssie lite loaded</t>
-  </si>
-  <si>
-    <t>4mm Screws</t>
-  </si>
-  <si>
-    <t>4mm nuts</t>
-  </si>
-  <si>
-    <t>ribbon cable with 40 pin IDC connector</t>
+    <t>PART DESCRIPTION</t>
+  </si>
+  <si>
+    <t>USB Rechargeable Power Bank - White</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>PTGMPBM2-W</t>
+  </si>
+  <si>
+    <t>PART NUMBER</t>
+  </si>
+  <si>
+    <t>http://www.ncix.com/detail/pivos-moju-2600mah-mobile-charger-37-99830.htm</t>
+  </si>
+  <si>
+    <t>SUPPLIER LINK</t>
+  </si>
+  <si>
+    <t>Nintendo Wii Remote</t>
+  </si>
+  <si>
+    <t>Pivos Moju 2600mAh Mobile Charger</t>
+  </si>
+  <si>
+    <t>Ribbon cable with 40 pin IDC connector</t>
+  </si>
+  <si>
+    <t>Nintendo Nunchuk Controller</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/products/pi-zero/</t>
+  </si>
+  <si>
+    <t>http://www.canakit.com/raspberry-pi-zero.html</t>
+  </si>
+  <si>
+    <t>http://global.pivosgroup.com/a-home-for-moju-battery/</t>
+  </si>
+  <si>
+    <t>NCIX US</t>
+  </si>
+  <si>
+    <t>NCIX</t>
+  </si>
+  <si>
+    <t>CanaKit</t>
+  </si>
+  <si>
+    <t>http://www.ncix.com/detail/kingston-sdc10g2-32gbcr-32gb-microsdhc-class-06-117882.htm?promoid=1637</t>
+  </si>
+  <si>
+    <t>Kingston 32GB microSDHC Class 10 card</t>
+  </si>
+  <si>
+    <t>microSD card with Raspbian Jessie lite loaded</t>
+  </si>
+  <si>
+    <t>SDC10G2/32GBCR</t>
+  </si>
+  <si>
+    <t>Newegg</t>
+  </si>
+  <si>
+    <t>https://www.kingston.com/en/flash/microsd_cards</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>Push button switch PS-300C1</t>
+  </si>
+  <si>
+    <t>SPDT momentary contact On-(On) microswitch, red and white</t>
+  </si>
+  <si>
+    <t>Lee's Electronic</t>
+  </si>
+  <si>
+    <t>Sanwa JLF-TP-8YT-SK joystick</t>
+  </si>
+  <si>
+    <t>4 &amp; 8 Way adjustable OEM arcade joystick, green ball handle</t>
+  </si>
+  <si>
+    <t>Amazon.ca</t>
+  </si>
+  <si>
+    <t>Joystick top push button</t>
+  </si>
+  <si>
+    <t>Micro switch DM1-03 long lever</t>
+  </si>
+  <si>
+    <t>4 mm screws</t>
+  </si>
+  <si>
+    <t>4 mm nuts</t>
+  </si>
+  <si>
+    <t>Newark.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -206,12 +226,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -223,6 +246,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -271,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +330,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,6 +382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,221 +575,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.9453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>6.6</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>2.95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -738,55 +771,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="43.47265625" customWidth="1"/>
+    <col min="2" max="2" width="32.5234375" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="16.68359375" customWidth="1"/>
+    <col min="6" max="6" width="14.1015625" customWidth="1"/>
+    <col min="7" max="7" width="14.62890625" customWidth="1"/>
+    <col min="8" max="8" width="13.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -794,142 +831,169 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="4">
         <v>6.75</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>99830</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="4">
         <v>7.99</v>
       </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4">
-        <v>13.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2</v>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>